--- a/Git-Commands.xlsx
+++ b/Git-Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidnajmi/Desktop/GitTutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C727AD-B3B2-C24E-86D0-7267E7E99408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A4C8E-D4AB-7747-AF54-D455E9B4281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{F17A3363-BEB7-0E4D-93C7-B00236711529}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="B1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Git-Commands.xlsx
+++ b/Git-Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidnajmi/Desktop/GitTutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C727AD-B3B2-C24E-86D0-7267E7E99408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87493EF6-3565-4540-A71C-CD9B6C7047FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{F17A3363-BEB7-0E4D-93C7-B00236711529}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>S.N</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>It is used to list the branches that have NOT been merged into the currently checked-out branch.</t>
+  </si>
+  <si>
+    <t>git push origin [branch name]</t>
+  </si>
+  <si>
+    <t>It is used to push the specified branch to the remote repository named "origin."</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AF684C-2C77-AC4D-B633-482171CD6F07}">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,64 +1341,68 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" ht="60" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="40" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="2:4" ht="19" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
@@ -1454,6 +1464,11 @@
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
+    <row r="59" spans="2:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Git-Commands.xlsx
+++ b/Git-Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidnajmi/Desktop/GitTutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A4C8E-D4AB-7747-AF54-D455E9B4281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCDF15-9224-D446-BF4C-6D2905A13BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{F17A3363-BEB7-0E4D-93C7-B00236711529}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>S.N</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>It is used to list the branches that have NOT been merged into the currently checked-out branch.</t>
+  </si>
+  <si>
+    <t>git push origin [branch name]</t>
+  </si>
+  <si>
+    <t>It is used to push the specified branch to the remote repository named "origin.</t>
+  </si>
+  <si>
+    <t>git push -d origin [branch name]</t>
+  </si>
+  <si>
+    <t>It is used to delete a branch on the remote repository named "origin.</t>
   </si>
 </sst>
 </file>
@@ -968,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AF684C-2C77-AC4D-B633-482171CD6F07}">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,69 +1347,77 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" ht="60" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="40" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="B47" s="7"/>
+      <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="2:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:4" ht="19" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
@@ -1454,6 +1474,16 @@
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
+    <row r="59" spans="2:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="2:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
